--- a/LogisticRegression/PFMatrix.xlsx
+++ b/LogisticRegression/PFMatrix.xlsx
@@ -429,34 +429,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4390484444880162</v>
+        <v>0.4183406113537118</v>
       </c>
       <c r="C2">
-        <v>0.4390484444880162</v>
+        <v>0.4136088851398847</v>
       </c>
       <c r="D2">
-        <v>0.4390484444880162</v>
+        <v>0.491358024691358</v>
       </c>
       <c r="E2">
-        <v>0.4390484444880162</v>
+        <v>0.4642601346511961</v>
       </c>
       <c r="F2">
-        <v>0.4390484444880162</v>
+        <v>0.4659010350205586</v>
       </c>
       <c r="G2">
-        <v>0.4390484444880162</v>
+        <v>0.4304913901721966</v>
       </c>
       <c r="H2">
-        <v>0.4390484444880162</v>
+        <v>0.3893045164865614</v>
       </c>
       <c r="I2">
-        <v>0.4390484444880162</v>
+        <v>0.4288651315789473</v>
       </c>
       <c r="J2">
-        <v>0.4390484444880162</v>
+        <v>0.4706209969367864</v>
       </c>
       <c r="K2">
-        <v>0.4390484444880162</v>
+        <v>0.4177337188489605</v>
       </c>
       <c r="L2">
         <v>0.4390484444880162</v>
